--- a/Test/ExcelFile/AnotherTest.xlsx
+++ b/Test/ExcelFile/AnotherTest.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
